--- a/engine/Formula Sheet.xlsx
+++ b/engine/Formula Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ronnynguyen/Documents/Project/FinAlytic/engine/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD8FA58-CFD5-E549-AC49-9AC0F1DAAF3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB9C40C-375A-9841-A708-C9FA9FAA9036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formula" sheetId="1" r:id="rId1"/>
@@ -1429,32 +1429,32 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1484,17 +1484,17 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1848,8 +1848,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U1068"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1866,36 +1866,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="22" customHeight="1">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="132" t="s">
+      <c r="B1" s="131"/>
+      <c r="C1" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="133"/>
+      <c r="D1" s="131"/>
       <c r="E1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="132" t="s">
+      <c r="F1" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="133"/>
-      <c r="I1" s="131" t="s">
+      <c r="G1" s="131"/>
+      <c r="I1" s="154" t="s">
         <v>150</v>
       </c>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="131"/>
-      <c r="P1" s="131"/>
-      <c r="Q1" s="131"/>
-      <c r="R1" s="131"/>
-      <c r="S1" s="131"/>
-      <c r="T1" s="131"/>
-      <c r="U1" s="131"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="154"/>
+      <c r="L1" s="154"/>
+      <c r="M1" s="154"/>
+      <c r="N1" s="154"/>
+      <c r="O1" s="154"/>
+      <c r="P1" s="154"/>
+      <c r="Q1" s="154"/>
+      <c r="R1" s="154"/>
+      <c r="S1" s="154"/>
+      <c r="T1" s="154"/>
+      <c r="U1" s="154"/>
     </row>
     <row r="2" spans="1:21" ht="16" customHeight="1">
       <c r="A2" s="1" t="str">
@@ -1925,21 +1925,21 @@
         <f t="array" aca="1" ref="G2" ca="1">INDIRECT(ADDRESS(ROW(J16)+MATCH(D2,J17:J27,0),16))</f>
         <v>1571596.0962622315</v>
       </c>
-      <c r="I2" s="126" t="s">
+      <c r="I2" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="126"/>
-      <c r="Q2" s="126"/>
-      <c r="R2" s="126"/>
-      <c r="S2" s="126"/>
-      <c r="T2" s="126"/>
-      <c r="U2" s="126"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="132"/>
+      <c r="L2" s="132"/>
+      <c r="M2" s="132"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="132"/>
+      <c r="P2" s="132"/>
+      <c r="Q2" s="132"/>
+      <c r="R2" s="132"/>
+      <c r="S2" s="132"/>
+      <c r="T2" s="132"/>
+      <c r="U2" s="132"/>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="1" t="str">
@@ -1970,7 +1970,7 @@
         <f t="array" aca="1" ref="G3" ca="1">INDIRECT(ADDRESS(ROW(J3)+MATCH(D2,J4:J14,0),16))</f>
         <v>0.1899019518477516</v>
       </c>
-      <c r="I3" s="130" t="s">
+      <c r="I3" s="133" t="s">
         <v>4</v>
       </c>
       <c r="J3" s="79">
@@ -2044,7 +2044,7 @@
         <f>SUM(C42:G42)/SUM(C28:G28)</f>
         <v>0.24001137313709697</v>
       </c>
-      <c r="I4" s="130"/>
+      <c r="I4" s="133"/>
       <c r="J4" s="79">
         <v>0.1</v>
       </c>
@@ -2105,7 +2105,7 @@
         <f>(G57/C57)^(1/5)-1</f>
         <v>-2.4355030918225218E-2</v>
       </c>
-      <c r="I5" s="130"/>
+      <c r="I5" s="133"/>
       <c r="J5" s="79">
         <v>0.12</v>
       </c>
@@ -2165,7 +2165,7 @@
         <f ca="1">G2/B40</f>
         <v>3.1485762579255154</v>
       </c>
-      <c r="I6" s="130"/>
+      <c r="I6" s="133"/>
       <c r="J6" s="79">
         <v>0.14000000000000001</v>
       </c>
@@ -2226,7 +2226,7 @@
       <c r="G7" s="77" t="s">
         <v>159</v>
       </c>
-      <c r="I7" s="130"/>
+      <c r="I7" s="133"/>
       <c r="J7" s="79">
         <v>0.16</v>
       </c>
@@ -2280,7 +2280,7 @@
       </c>
       <c r="E8" s="14">
         <f ca="1">_xlfn.NORM.INV(RAND(),F8,G8)</f>
-        <v>8.1637539101338478E-3</v>
+        <v>4.7544506216304931E-3</v>
       </c>
       <c r="F8" s="82">
         <f>SUMIFS('Retail Industry Metrics'!C:C, 'Retail Industry Metrics'!A:A, B5,'Retail Industry Metrics'!B:B, B7)</f>
@@ -2289,7 +2289,7 @@
       <c r="G8" s="74">
         <v>0.01</v>
       </c>
-      <c r="I8" s="130"/>
+      <c r="I8" s="133"/>
       <c r="J8" s="79">
         <v>0.18</v>
       </c>
@@ -2347,7 +2347,7 @@
       </c>
       <c r="F9" s="148"/>
       <c r="G9" s="149"/>
-      <c r="I9" s="130"/>
+      <c r="I9" s="133"/>
       <c r="J9" s="79">
         <v>0.2</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>147</v>
       </c>
       <c r="G10" s="146"/>
-      <c r="I10" s="130"/>
+      <c r="I10" s="133"/>
       <c r="J10" s="79">
         <v>0.22</v>
       </c>
@@ -2465,7 +2465,7 @@
       <c r="G11" s="107">
         <v>0.2</v>
       </c>
-      <c r="I11" s="130"/>
+      <c r="I11" s="133"/>
       <c r="J11" s="79">
         <v>0.24</v>
       </c>
@@ -2526,7 +2526,7 @@
       <c r="G12" s="107">
         <v>0.16</v>
       </c>
-      <c r="I12" s="130"/>
+      <c r="I12" s="133"/>
       <c r="J12" s="79">
         <v>0.26</v>
       </c>
@@ -2586,7 +2586,7 @@
       <c r="G13" s="107">
         <v>0.1</v>
       </c>
-      <c r="I13" s="130"/>
+      <c r="I13" s="133"/>
       <c r="J13" s="79">
         <v>0.28000000000000003</v>
       </c>
@@ -2646,7 +2646,7 @@
       <c r="G14" s="107">
         <v>0.3</v>
       </c>
-      <c r="I14" s="130"/>
+      <c r="I14" s="133"/>
       <c r="J14" s="79">
         <v>0.3</v>
       </c>
@@ -2708,21 +2708,21 @@
         <v>4</v>
       </c>
       <c r="H15"/>
-      <c r="I15" s="126" t="s">
+      <c r="I15" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="J15" s="126"/>
-      <c r="K15" s="126"/>
-      <c r="L15" s="126"/>
-      <c r="M15" s="126"/>
-      <c r="N15" s="126"/>
-      <c r="O15" s="126"/>
-      <c r="P15" s="126"/>
-      <c r="Q15" s="126"/>
-      <c r="R15" s="126"/>
-      <c r="S15" s="126"/>
-      <c r="T15" s="126"/>
-      <c r="U15" s="126"/>
+      <c r="J15" s="132"/>
+      <c r="K15" s="132"/>
+      <c r="L15" s="132"/>
+      <c r="M15" s="132"/>
+      <c r="N15" s="132"/>
+      <c r="O15" s="132"/>
+      <c r="P15" s="132"/>
+      <c r="Q15" s="132"/>
+      <c r="R15" s="132"/>
+      <c r="S15" s="132"/>
+      <c r="T15" s="132"/>
+      <c r="U15" s="132"/>
     </row>
     <row r="16" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1">
       <c r="A16" s="40" t="str">
@@ -2748,7 +2748,7 @@
         <v>28</v>
       </c>
       <c r="H16"/>
-      <c r="I16" s="130" t="s">
+      <c r="I16" s="133" t="s">
         <v>4</v>
       </c>
       <c r="J16" s="115">
@@ -2823,7 +2823,7 @@
       <c r="G17" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="130"/>
+      <c r="I17" s="133"/>
       <c r="J17" s="79">
         <v>0.1</v>
       </c>
@@ -2872,7 +2872,7 @@
       <c r="C18" s="150" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="133"/>
+      <c r="D18" s="131"/>
       <c r="E18" s="42" t="s">
         <v>35</v>
       </c>
@@ -2882,7 +2882,7 @@
       <c r="G18" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="I18" s="130"/>
+      <c r="I18" s="133"/>
       <c r="J18" s="79">
         <v>0.12</v>
       </c>
@@ -2944,7 +2944,7 @@
       <c r="G19" s="6">
         <v>27</v>
       </c>
-      <c r="I19" s="130"/>
+      <c r="I19" s="133"/>
       <c r="J19" s="79">
         <v>0.14000000000000001</v>
       </c>
@@ -3006,7 +3006,7 @@
       <c r="G20" s="6">
         <v>32</v>
       </c>
-      <c r="I20" s="130"/>
+      <c r="I20" s="133"/>
       <c r="J20" s="79">
         <v>0.16</v>
       </c>
@@ -3062,7 +3062,7 @@
       <c r="E21" s="136"/>
       <c r="F21" s="137"/>
       <c r="G21" s="138"/>
-      <c r="I21" s="130"/>
+      <c r="I21" s="133"/>
       <c r="J21" s="79">
         <v>0.18</v>
       </c>
@@ -3118,7 +3118,7 @@
       <c r="E22" s="139"/>
       <c r="F22" s="140"/>
       <c r="G22" s="141"/>
-      <c r="I22" s="130"/>
+      <c r="I22" s="133"/>
       <c r="J22" s="79">
         <v>0.2</v>
       </c>
@@ -3174,7 +3174,7 @@
       <c r="E23" s="139"/>
       <c r="F23" s="140"/>
       <c r="G23" s="141"/>
-      <c r="I23" s="130"/>
+      <c r="I23" s="133"/>
       <c r="J23" s="79">
         <v>0.22</v>
       </c>
@@ -3230,7 +3230,7 @@
       <c r="E24" s="142"/>
       <c r="F24" s="143"/>
       <c r="G24" s="144"/>
-      <c r="I24" s="130"/>
+      <c r="I24" s="133"/>
       <c r="J24" s="79">
         <v>0.24</v>
       </c>
@@ -3272,16 +3272,16 @@
       <c r="A25" s="1" t="str">
         <v>URL</v>
       </c>
-      <c r="B25" s="134" t="str">
+      <c r="B25" s="135" t="str">
         <f>HYPERLINK(VLOOKUP($B$2,'Business Data'!A:AB,ROW()-1))</f>
         <v>https://www.seekbusiness.com.au/business-listing/gotcha-fresh-tea-at-eastern-creeks-quarter-shopping-center/735018</v>
       </c>
-      <c r="C25" s="135"/>
-      <c r="D25" s="135"/>
-      <c r="E25" s="135"/>
-      <c r="F25" s="135"/>
-      <c r="G25" s="133"/>
-      <c r="I25" s="130"/>
+      <c r="C25" s="130"/>
+      <c r="D25" s="130"/>
+      <c r="E25" s="130"/>
+      <c r="F25" s="130"/>
+      <c r="G25" s="131"/>
+      <c r="I25" s="133"/>
       <c r="J25" s="79">
         <v>0.26</v>
       </c>
@@ -3320,16 +3320,16 @@
       </c>
     </row>
     <row r="26" spans="1:21" ht="25" customHeight="1">
-      <c r="A26" s="132" t="s">
+      <c r="A26" s="129" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="135"/>
-      <c r="C26" s="135"/>
-      <c r="D26" s="135"/>
-      <c r="E26" s="135"/>
-      <c r="F26" s="135"/>
-      <c r="G26" s="133"/>
-      <c r="I26" s="130"/>
+      <c r="B26" s="130"/>
+      <c r="C26" s="130"/>
+      <c r="D26" s="130"/>
+      <c r="E26" s="130"/>
+      <c r="F26" s="130"/>
+      <c r="G26" s="131"/>
+      <c r="I26" s="133"/>
       <c r="J26" s="79">
         <v>0.28000000000000003</v>
       </c>
@@ -3387,7 +3387,7 @@
       <c r="G27" s="20">
         <v>5</v>
       </c>
-      <c r="I27" s="130"/>
+      <c r="I27" s="133"/>
       <c r="J27" s="79">
         <v>0.3</v>
       </c>
@@ -3453,21 +3453,21 @@
         <f>$B28*(1+$D$3)^G$27</f>
         <v>579998.23466269253</v>
       </c>
-      <c r="I28" s="126" t="s">
+      <c r="I28" s="132" t="s">
         <v>162</v>
       </c>
-      <c r="J28" s="126"/>
-      <c r="K28" s="126"/>
-      <c r="L28" s="126"/>
-      <c r="M28" s="126"/>
-      <c r="N28" s="126"/>
-      <c r="O28" s="126"/>
-      <c r="P28" s="126"/>
-      <c r="Q28" s="126"/>
-      <c r="R28" s="126"/>
-      <c r="S28" s="126"/>
-      <c r="T28" s="126"/>
-      <c r="U28" s="126"/>
+      <c r="J28" s="132"/>
+      <c r="K28" s="132"/>
+      <c r="L28" s="132"/>
+      <c r="M28" s="132"/>
+      <c r="N28" s="132"/>
+      <c r="O28" s="132"/>
+      <c r="P28" s="132"/>
+      <c r="Q28" s="132"/>
+      <c r="R28" s="132"/>
+      <c r="S28" s="132"/>
+      <c r="T28" s="132"/>
+      <c r="U28" s="132"/>
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="10" t="s">
@@ -3497,7 +3497,7 @@
         <f>$B29*(1+$D$5)^G$27</f>
         <v>261163.74239121508</v>
       </c>
-      <c r="I29" s="130" t="s">
+      <c r="I29" s="133" t="s">
         <v>4</v>
       </c>
       <c r="J29" s="115">
@@ -3577,12 +3577,12 @@
         <f>$B30*(1+$D$6)^G$27</f>
         <v>85744.469058822142</v>
       </c>
-      <c r="I30" s="130"/>
+      <c r="I30" s="133"/>
       <c r="J30" s="79">
         <v>0.1</v>
       </c>
       <c r="K30" s="116">
-        <f t="dataTable" ref="K30:U40" dt2D="1" dtr="1" r1="D3" r2="D2" ca="1"/>
+        <f t="dataTable" ref="K30:U40" dt2D="1" dtr="1" r1="D3" r2="D2"/>
         <v>334290.2713638671</v>
       </c>
       <c r="L30" s="116">
@@ -3644,7 +3644,7 @@
         <f>$B31*(1+(IF($B$18=1,$B$19,$D$7)))^G$27</f>
         <v>109162.96501493762</v>
       </c>
-      <c r="I31" s="130"/>
+      <c r="I31" s="133"/>
       <c r="J31" s="79">
         <v>0.12</v>
       </c>
@@ -3693,7 +3693,7 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
-      <c r="I32" s="130"/>
+      <c r="I32" s="133"/>
       <c r="J32" s="79">
         <v>0.14000000000000001</v>
       </c>
@@ -3732,16 +3732,16 @@
       </c>
     </row>
     <row r="33" spans="1:21" ht="22" customHeight="1">
-      <c r="A33" s="132" t="s">
+      <c r="A33" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="135"/>
-      <c r="C33" s="135"/>
-      <c r="D33" s="135"/>
-      <c r="E33" s="135"/>
-      <c r="F33" s="135"/>
-      <c r="G33" s="133"/>
-      <c r="I33" s="130"/>
+      <c r="B33" s="130"/>
+      <c r="C33" s="130"/>
+      <c r="D33" s="130"/>
+      <c r="E33" s="130"/>
+      <c r="F33" s="130"/>
+      <c r="G33" s="131"/>
+      <c r="I33" s="133"/>
       <c r="J33" s="79">
         <v>0.16</v>
       </c>
@@ -3799,7 +3799,7 @@
       <c r="G34" s="20">
         <v>5</v>
       </c>
-      <c r="I34" s="130"/>
+      <c r="I34" s="133"/>
       <c r="J34" s="79">
         <v>0.18</v>
       </c>
@@ -3838,16 +3838,16 @@
       </c>
     </row>
     <row r="35" spans="1:21">
-      <c r="A35" s="154" t="s">
+      <c r="A35" s="134" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="135"/>
-      <c r="C35" s="135"/>
-      <c r="D35" s="135"/>
-      <c r="E35" s="135"/>
-      <c r="F35" s="135"/>
-      <c r="G35" s="133"/>
-      <c r="I35" s="130"/>
+      <c r="B35" s="130"/>
+      <c r="C35" s="130"/>
+      <c r="D35" s="130"/>
+      <c r="E35" s="130"/>
+      <c r="F35" s="130"/>
+      <c r="G35" s="131"/>
+      <c r="I35" s="133"/>
       <c r="J35" s="79">
         <v>0.2</v>
       </c>
@@ -3898,7 +3898,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="I36" s="130"/>
+      <c r="I36" s="133"/>
       <c r="J36" s="79">
         <v>0.22</v>
       </c>
@@ -3949,7 +3949,7 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="I37" s="130"/>
+      <c r="I37" s="133"/>
       <c r="J37" s="79">
         <v>0.24</v>
       </c>
@@ -4000,7 +4000,7 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="I38" s="130"/>
+      <c r="I38" s="133"/>
       <c r="J38" s="79">
         <v>0.26</v>
       </c>
@@ -4051,7 +4051,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="I39" s="130"/>
+      <c r="I39" s="133"/>
       <c r="J39" s="79">
         <v>0.28000000000000003</v>
       </c>
@@ -4102,7 +4102,7 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="I40" s="130"/>
+      <c r="I40" s="133"/>
       <c r="J40" s="79">
         <v>0.3</v>
       </c>
@@ -4141,30 +4141,30 @@
       </c>
     </row>
     <row r="41" spans="1:21">
-      <c r="A41" s="154" t="s">
+      <c r="A41" s="134" t="s">
         <v>54</v>
       </c>
-      <c r="B41" s="135"/>
-      <c r="C41" s="135"/>
-      <c r="D41" s="135"/>
-      <c r="E41" s="135"/>
-      <c r="F41" s="135"/>
-      <c r="G41" s="133"/>
-      <c r="I41" s="127" t="s">
+      <c r="B41" s="130"/>
+      <c r="C41" s="130"/>
+      <c r="D41" s="130"/>
+      <c r="E41" s="130"/>
+      <c r="F41" s="130"/>
+      <c r="G41" s="131"/>
+      <c r="I41" s="151" t="s">
         <v>151</v>
       </c>
-      <c r="J41" s="128"/>
-      <c r="K41" s="128"/>
-      <c r="L41" s="128"/>
-      <c r="M41" s="128"/>
-      <c r="N41" s="128"/>
-      <c r="O41" s="128"/>
-      <c r="P41" s="128"/>
-      <c r="Q41" s="128"/>
-      <c r="R41" s="128"/>
-      <c r="S41" s="128"/>
-      <c r="T41" s="128"/>
-      <c r="U41" s="129"/>
+      <c r="J41" s="152"/>
+      <c r="K41" s="152"/>
+      <c r="L41" s="152"/>
+      <c r="M41" s="152"/>
+      <c r="N41" s="152"/>
+      <c r="O41" s="152"/>
+      <c r="P41" s="152"/>
+      <c r="Q41" s="152"/>
+      <c r="R41" s="152"/>
+      <c r="S41" s="152"/>
+      <c r="T41" s="152"/>
+      <c r="U41" s="153"/>
     </row>
     <row r="42" spans="1:21">
       <c r="A42" s="22" t="s">
@@ -4192,7 +4192,7 @@
         <v>123927.05819771771</v>
       </c>
       <c r="H42" s="108"/>
-      <c r="I42" s="130" t="s">
+      <c r="I42" s="133" t="s">
         <v>4</v>
       </c>
       <c r="J42" s="79">
@@ -4270,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="108"/>
-      <c r="I43" s="130"/>
+      <c r="I43" s="133"/>
       <c r="J43" s="79">
         <f t="shared" ref="J43:J53" si="1">J4</f>
         <v>0.1</v>
@@ -4346,7 +4346,7 @@
         <v>12000</v>
       </c>
       <c r="H44" s="109"/>
-      <c r="I44" s="130"/>
+      <c r="I44" s="133"/>
       <c r="J44" s="79">
         <f t="shared" si="1"/>
         <v>0.12</v>
@@ -4422,7 +4422,7 @@
         <v>111927.05819771771</v>
       </c>
       <c r="H45" s="108"/>
-      <c r="I45" s="130"/>
+      <c r="I45" s="133"/>
       <c r="J45" s="79">
         <f t="shared" si="1"/>
         <v>0.14000000000000001</v>
@@ -4498,7 +4498,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="109"/>
-      <c r="I46" s="130"/>
+      <c r="I46" s="133"/>
       <c r="J46" s="79">
         <f t="shared" si="1"/>
         <v>0.16</v>
@@ -4574,7 +4574,7 @@
         <v>111927.05819771771</v>
       </c>
       <c r="H47" s="108"/>
-      <c r="I47" s="130"/>
+      <c r="I47" s="133"/>
       <c r="J47" s="79">
         <f t="shared" si="1"/>
         <v>0.18</v>
@@ -4650,7 +4650,7 @@
         <v>27981.764549429427</v>
       </c>
       <c r="H48" s="109"/>
-      <c r="I48" s="130"/>
+      <c r="I48" s="133"/>
       <c r="J48" s="79">
         <f t="shared" si="1"/>
         <v>0.2</v>
@@ -4726,7 +4726,7 @@
         <v>83945.29364828828</v>
       </c>
       <c r="H49" s="108"/>
-      <c r="I49" s="130"/>
+      <c r="I49" s="133"/>
       <c r="J49" s="79">
         <f t="shared" si="1"/>
         <v>0.22</v>
@@ -4802,7 +4802,7 @@
         <v>12000</v>
       </c>
       <c r="H50" s="108"/>
-      <c r="I50" s="130"/>
+      <c r="I50" s="133"/>
       <c r="J50" s="79">
         <f t="shared" si="1"/>
         <v>0.24</v>
@@ -4878,7 +4878,7 @@
         <v>0</v>
       </c>
       <c r="H51" s="108"/>
-      <c r="I51" s="130"/>
+      <c r="I51" s="133"/>
       <c r="J51" s="79">
         <f t="shared" si="1"/>
         <v>0.26</v>
@@ -4954,7 +4954,7 @@
         <v>95945.29364828828</v>
       </c>
       <c r="H52" s="108"/>
-      <c r="I52" s="130"/>
+      <c r="I52" s="133"/>
       <c r="J52" s="79">
         <f t="shared" si="1"/>
         <v>0.28000000000000003</v>
@@ -5005,16 +5005,16 @@
       </c>
     </row>
     <row r="53" spans="1:21">
-      <c r="A53" s="154" t="s">
+      <c r="A53" s="134" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="135"/>
-      <c r="C53" s="135"/>
-      <c r="D53" s="135"/>
-      <c r="E53" s="135"/>
-      <c r="F53" s="135"/>
-      <c r="G53" s="133"/>
-      <c r="I53" s="130"/>
+      <c r="B53" s="130"/>
+      <c r="C53" s="130"/>
+      <c r="D53" s="130"/>
+      <c r="E53" s="130"/>
+      <c r="F53" s="130"/>
+      <c r="G53" s="131"/>
+      <c r="I53" s="133"/>
       <c r="J53" s="79">
         <f t="shared" si="1"/>
         <v>0.3</v>
@@ -5122,15 +5122,15 @@
       <c r="H55" s="108"/>
     </row>
     <row r="56" spans="1:21">
-      <c r="A56" s="154" t="s">
+      <c r="A56" s="134" t="s">
         <v>67</v>
       </c>
-      <c r="B56" s="135"/>
-      <c r="C56" s="135"/>
-      <c r="D56" s="135"/>
-      <c r="E56" s="135"/>
-      <c r="F56" s="135"/>
-      <c r="G56" s="133"/>
+      <c r="B56" s="130"/>
+      <c r="C56" s="130"/>
+      <c r="D56" s="130"/>
+      <c r="E56" s="130"/>
+      <c r="F56" s="130"/>
+      <c r="G56" s="131"/>
       <c r="J56" s="47"/>
     </row>
     <row r="57" spans="1:21">
@@ -5176,15 +5176,15 @@
       <c r="H58" s="111"/>
     </row>
     <row r="59" spans="1:21">
-      <c r="A59" s="154" t="s">
+      <c r="A59" s="134" t="s">
         <v>70</v>
       </c>
-      <c r="B59" s="135"/>
-      <c r="C59" s="135"/>
-      <c r="D59" s="135"/>
-      <c r="E59" s="135"/>
-      <c r="F59" s="135"/>
-      <c r="G59" s="133"/>
+      <c r="B59" s="130"/>
+      <c r="C59" s="130"/>
+      <c r="D59" s="130"/>
+      <c r="E59" s="130"/>
+      <c r="F59" s="130"/>
+      <c r="G59" s="131"/>
     </row>
     <row r="60" spans="1:21">
       <c r="A60" s="1" t="s">
@@ -5286,15 +5286,15 @@
       <c r="G64" s="123"/>
     </row>
     <row r="65" spans="1:8" ht="23" thickBot="1">
-      <c r="A65" s="132" t="s">
+      <c r="A65" s="129" t="s">
         <v>153</v>
       </c>
-      <c r="B65" s="135"/>
-      <c r="C65" s="135"/>
-      <c r="D65" s="135"/>
-      <c r="E65" s="135"/>
-      <c r="F65" s="135"/>
-      <c r="G65" s="133"/>
+      <c r="B65" s="130"/>
+      <c r="C65" s="130"/>
+      <c r="D65" s="130"/>
+      <c r="E65" s="130"/>
+      <c r="F65" s="130"/>
+      <c r="G65" s="131"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="83" t="s">
@@ -5305,12 +5305,12 @@
         <v>499145</v>
       </c>
       <c r="C66" s="85"/>
-      <c r="D66" s="151" t="s">
+      <c r="D66" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="E66" s="152"/>
-      <c r="F66" s="152"/>
-      <c r="G66" s="153"/>
+      <c r="E66" s="127"/>
+      <c r="F66" s="127"/>
+      <c r="G66" s="128"/>
       <c r="H66" s="112"/>
     </row>
     <row r="67" spans="1:8">
@@ -19371,6 +19371,19 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="I2:U2"/>
+    <mergeCell ref="I41:U41"/>
+    <mergeCell ref="I42:I53"/>
+    <mergeCell ref="I1:U1"/>
+    <mergeCell ref="I3:I14"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="E21:G24"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C1:D1"/>
     <mergeCell ref="D66:G66"/>
     <mergeCell ref="A65:G65"/>
     <mergeCell ref="I28:U28"/>
@@ -19384,19 +19397,6 @@
     <mergeCell ref="A53:G53"/>
     <mergeCell ref="A35:G35"/>
     <mergeCell ref="A41:G41"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="E21:G24"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="I2:U2"/>
-    <mergeCell ref="I41:U41"/>
-    <mergeCell ref="I42:I53"/>
-    <mergeCell ref="I1:U1"/>
-    <mergeCell ref="I3:I14"/>
   </mergeCells>
   <conditionalFormatting sqref="K43:U53">
     <cfRule type="top10" dxfId="0" priority="2" bottom="1" rank="1"/>
@@ -19411,7 +19411,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Y30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="M1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
